--- a/operations.xlsx
+++ b/operations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -439,25 +439,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-03-13 20:47:32</v>
+        <v>2025-03-27 19:01:57</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -466,158 +466,158 @@
         <v>2022</v>
       </c>
       <c r="J2" t="str">
-        <v>534.31</v>
+        <v>2540.09</v>
       </c>
       <c r="K2" t="str">
-        <v>27073.62</v>
+        <v>76202.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-03-13 20:48:30</v>
+        <v>2025-03-27 19:07:06</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="J3" t="str">
-        <v>889.13</v>
+        <v>3790.92</v>
       </c>
       <c r="K3" t="str">
-        <v>45052.15</v>
+        <v>113727.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-03-13 20:52:16</v>
+        <v>2025-03-27 19:11:45</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>200</v>
       </c>
       <c r="I4">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="J4" t="str">
-        <v>767.53</v>
+        <v>1606.58</v>
       </c>
       <c r="K4" t="str">
-        <v>38890.51</v>
+        <v>81405.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-03-13 20:57:37</v>
+        <v>2025-03-27 19:17:29</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>740</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I5">
         <v>2022</v>
       </c>
       <c r="J5" t="str">
-        <v>433.33</v>
+        <v>1602.82</v>
       </c>
       <c r="K5" t="str">
-        <v>21956.87</v>
+        <v>81214.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025-03-13 21:02:52</v>
+        <v>2025-03-27 19:24:28</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>590</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="J6" t="str">
-        <v>392.27</v>
+        <v>1405.47</v>
       </c>
       <c r="K6" t="str">
-        <v>19876.40</v>
+        <v>71215.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025-03-13 21:07:04</v>
+        <v>2025-03-27 19:25:21</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>930</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -626,485 +626,65 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>200</v>
       </c>
       <c r="I7">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="J7" t="str">
-        <v>606.48</v>
+        <v>2232.04</v>
       </c>
       <c r="K7" t="str">
-        <v>30730.30</v>
+        <v>113097.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025-03-13 21:10:59</v>
+        <v>2025-03-27 19:26:05</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>940</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I8">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="J8" t="str">
-        <v>378.17</v>
+        <v>2239.30</v>
       </c>
       <c r="K8" t="str">
-        <v>19161.84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2025-03-13 21:12:40</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="I9">
-        <v>2025</v>
-      </c>
-      <c r="J9" t="str">
-        <v>435.43</v>
-      </c>
-      <c r="K9" t="str">
-        <v>22062.99</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>2025-03-13 21:14:00</v>
-      </c>
-      <c r="B10">
-        <v>120</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>2025</v>
-      </c>
-      <c r="J10" t="str">
-        <v>421.77</v>
-      </c>
-      <c r="K10" t="str">
-        <v>21371.03</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>2025-03-13 21:18:26</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>90</v>
-      </c>
-      <c r="I11">
-        <v>2025</v>
-      </c>
-      <c r="J11" t="str">
-        <v>386.62</v>
-      </c>
-      <c r="K11" t="str">
-        <v>19590.15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>2025-03-14 12:29:05</v>
-      </c>
-      <c r="B12">
-        <v>400</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12">
-        <v>2025</v>
-      </c>
-      <c r="J12" t="str">
-        <v>909.24</v>
-      </c>
-      <c r="K12" t="str">
-        <v>46071.17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>2025-03-14 12:30:45</v>
-      </c>
-      <c r="B13">
-        <v>500</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>2022</v>
-      </c>
-      <c r="J13" t="str">
-        <v>1022.87</v>
-      </c>
-      <c r="K13" t="str">
-        <v>51828.61</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>2025-03-14 12:36:51</v>
-      </c>
-      <c r="B14">
-        <v>400</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>2022</v>
-      </c>
-      <c r="J14" t="str">
-        <v>847.83</v>
-      </c>
-      <c r="K14" t="str">
-        <v>42959.36</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>2025-03-15 09:54:18</v>
-      </c>
-      <c r="B15">
-        <v>400</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>2022</v>
-      </c>
-      <c r="J15" t="str">
-        <v>865.26</v>
-      </c>
-      <c r="K15" t="str">
-        <v>43842.54</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>2025-03-15 10:01:04</v>
-      </c>
-      <c r="B16">
-        <v>500</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>300</v>
-      </c>
-      <c r="I16">
-        <v>2025</v>
-      </c>
-      <c r="J16" t="str">
-        <v>1109.34</v>
-      </c>
-      <c r="K16" t="str">
-        <v>56210.35</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>2025-03-15 10:03:05</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>250</v>
-      </c>
-      <c r="I17">
-        <v>2025</v>
-      </c>
-      <c r="J17" t="str">
-        <v>625.09</v>
-      </c>
-      <c r="K17" t="str">
-        <v>31673.11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>2025-03-15 10:06:42</v>
-      </c>
-      <c r="B18">
-        <v>300</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>200</v>
-      </c>
-      <c r="I18">
-        <v>2025</v>
-      </c>
-      <c r="J18" t="str">
-        <v>8854.65</v>
-      </c>
-      <c r="K18" t="str">
-        <v>448665.22</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>2025-03-15 10:42:12</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>2022</v>
-      </c>
-      <c r="J19" t="str">
-        <v>7996.95</v>
-      </c>
-      <c r="K19" t="str">
-        <v>405205.39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>2025-03-15 10:55:19</v>
-      </c>
-      <c r="B20">
-        <v>500</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>40</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>2022</v>
-      </c>
-      <c r="J20" t="str">
-        <v>10205.26</v>
-      </c>
-      <c r="K20" t="str">
-        <v>517100.67</v>
+        <v>113465.48</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/operations.xlsx
+++ b/operations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -682,9 +682,1234 @@
         <v>113465.48</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-03-27 19:38:20</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>2022</v>
+      </c>
+      <c r="J9" t="str">
+        <v>1467.91</v>
+      </c>
+      <c r="K9" t="str">
+        <v>74378.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-03-27 20:22:43</v>
+      </c>
+      <c r="B10">
+        <v>690</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>2022</v>
+      </c>
+      <c r="J10" t="str">
+        <v>1971.81</v>
+      </c>
+      <c r="K10" t="str">
+        <v>99911.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-03-27 20:23:41</v>
+      </c>
+      <c r="B11">
+        <v>710</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>2023</v>
+      </c>
+      <c r="J11" t="str">
+        <v>1387.72</v>
+      </c>
+      <c r="K11" t="str">
+        <v>70315.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-03-27 20:24:22</v>
+      </c>
+      <c r="B12">
+        <v>700</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>120</v>
+      </c>
+      <c r="I12">
+        <v>2023</v>
+      </c>
+      <c r="J12" t="str">
+        <v>1388.00</v>
+      </c>
+      <c r="K12" t="str">
+        <v>70330.21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-03-27 20:25:33</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>2020</v>
+      </c>
+      <c r="J13" t="str">
+        <v>2960.57</v>
+      </c>
+      <c r="K13" t="str">
+        <v>150012.00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-03-27 20:29:30</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>2022</v>
+      </c>
+      <c r="J14" t="str">
+        <v>2050.99</v>
+      </c>
+      <c r="K14" t="str">
+        <v>103923.84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-03-27 20:30:11</v>
+      </c>
+      <c r="B15">
+        <v>1100</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>2022</v>
+      </c>
+      <c r="J15" t="str">
+        <v>1592.84</v>
+      </c>
+      <c r="K15" t="str">
+        <v>80709.06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-03-27 20:30:47</v>
+      </c>
+      <c r="B16">
+        <v>600</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+      <c r="I16">
+        <v>2023</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2309.27</v>
+      </c>
+      <c r="K16" t="str">
+        <v>117010.94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-03-27 20:32:15</v>
+      </c>
+      <c r="B17">
+        <v>550</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>2023</v>
+      </c>
+      <c r="J17" t="str">
+        <v>1676.08</v>
+      </c>
+      <c r="K17" t="str">
+        <v>84926.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-03-27 20:33:53</v>
+      </c>
+      <c r="B18">
+        <v>570</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>170</v>
+      </c>
+      <c r="I18">
+        <v>2023</v>
+      </c>
+      <c r="J18" t="str">
+        <v>1857.27</v>
+      </c>
+      <c r="K18" t="str">
+        <v>94107.80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-03-27 20:34:50</v>
+      </c>
+      <c r="B19">
+        <v>580</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>170</v>
+      </c>
+      <c r="I19">
+        <v>2023</v>
+      </c>
+      <c r="J19" t="str">
+        <v>1882.95</v>
+      </c>
+      <c r="K19" t="str">
+        <v>95409.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-03-27 20:35:22</v>
+      </c>
+      <c r="B20">
+        <v>590</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20">
+        <v>2022</v>
+      </c>
+      <c r="J20" t="str">
+        <v>1723.08</v>
+      </c>
+      <c r="K20" t="str">
+        <v>87308.67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-03-27 20:36:50</v>
+      </c>
+      <c r="B21">
+        <v>900</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>2022</v>
+      </c>
+      <c r="J21" t="str">
+        <v>1962.51</v>
+      </c>
+      <c r="K21" t="str">
+        <v>99440.54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-03-27 21:00:29</v>
+      </c>
+      <c r="B22">
+        <v>600</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>2022</v>
+      </c>
+      <c r="J22" t="str">
+        <v>1367.64</v>
+      </c>
+      <c r="K22" t="str">
+        <v>69298.34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-03-27 21:01:14</v>
+      </c>
+      <c r="B23">
+        <v>900</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>2022</v>
+      </c>
+      <c r="J23" t="str">
+        <v>1973.68</v>
+      </c>
+      <c r="K23" t="str">
+        <v>100006.48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-03-27 21:01:51</v>
+      </c>
+      <c r="B24">
+        <v>950</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>2022</v>
+      </c>
+      <c r="J24" t="str">
+        <v>2005.59</v>
+      </c>
+      <c r="K24" t="str">
+        <v>101623.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-03-27 21:05:45</v>
+      </c>
+      <c r="B25">
+        <v>970</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>130</v>
+      </c>
+      <c r="I25">
+        <v>2022</v>
+      </c>
+      <c r="J25" t="str">
+        <v>2017.90</v>
+      </c>
+      <c r="K25" t="str">
+        <v>102247.07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-03-27 21:06:38</v>
+      </c>
+      <c r="B26">
+        <v>970</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>2022</v>
+      </c>
+      <c r="J26" t="str">
+        <v>2022.43</v>
+      </c>
+      <c r="K26" t="str">
+        <v>102476.69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-03-27 21:07:22</v>
+      </c>
+      <c r="B27">
+        <v>970</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <v>2022</v>
+      </c>
+      <c r="J27" t="str">
+        <v>2025.70</v>
+      </c>
+      <c r="K27" t="str">
+        <v>102642.47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-03-27 21:08:19</v>
+      </c>
+      <c r="B28">
+        <v>970</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>130</v>
+      </c>
+      <c r="I28">
+        <v>2022</v>
+      </c>
+      <c r="J28" t="str">
+        <v>2027.38</v>
+      </c>
+      <c r="K28" t="str">
+        <v>102727.34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-03-27 21:08:58</v>
+      </c>
+      <c r="B29">
+        <v>970</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>130</v>
+      </c>
+      <c r="I29">
+        <v>2022</v>
+      </c>
+      <c r="J29" t="str">
+        <v>2028.95</v>
+      </c>
+      <c r="K29" t="str">
+        <v>102807.08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025-03-27 21:09:33</v>
+      </c>
+      <c r="B30">
+        <v>970</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>130</v>
+      </c>
+      <c r="I30">
+        <v>2022</v>
+      </c>
+      <c r="J30" t="str">
+        <v>2029.70</v>
+      </c>
+      <c r="K30" t="str">
+        <v>102844.68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025-03-27 21:10:53</v>
+      </c>
+      <c r="B31">
+        <v>970</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>130</v>
+      </c>
+      <c r="I31">
+        <v>130</v>
+      </c>
+      <c r="J31" t="str">
+        <v>2221.56</v>
+      </c>
+      <c r="K31" t="str">
+        <v>112566.31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025-03-27 21:12:26</v>
+      </c>
+      <c r="B32">
+        <v>970</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>130</v>
+      </c>
+      <c r="I32">
+        <v>2022</v>
+      </c>
+      <c r="J32" t="str">
+        <v>2030.45</v>
+      </c>
+      <c r="K32" t="str">
+        <v>102882.79</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025-03-27 21:13:08</v>
+      </c>
+      <c r="B33">
+        <v>970</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>130</v>
+      </c>
+      <c r="I33">
+        <v>2022</v>
+      </c>
+      <c r="J33" t="str">
+        <v>2142.25</v>
+      </c>
+      <c r="K33" t="str">
+        <v>108547.60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2025-03-27 21:13:49</v>
+      </c>
+      <c r="B34">
+        <v>970</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>130</v>
+      </c>
+      <c r="I34">
+        <v>2022</v>
+      </c>
+      <c r="J34" t="str">
+        <v>2304.60</v>
+      </c>
+      <c r="K34" t="str">
+        <v>116774.00</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025-03-27 21:23:18</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="str">
+        <v>1201.13</v>
+      </c>
+      <c r="K35" t="str">
+        <v>60861.19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2025-03-27 21:24:03</v>
+      </c>
+      <c r="B36">
+        <v>780</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <v>2022</v>
+      </c>
+      <c r="J36" t="str">
+        <v>1619.75</v>
+      </c>
+      <c r="K36" t="str">
+        <v>82072.87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025-03-27 21:27:10</v>
+      </c>
+      <c r="B37">
+        <v>880</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <v>2025</v>
+      </c>
+      <c r="J37" t="str">
+        <v>2108.76</v>
+      </c>
+      <c r="K37" t="str">
+        <v>106851.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2025-03-27 21:28:28</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="str">
+        <v>1245.17</v>
+      </c>
+      <c r="K38" t="str">
+        <v>63092.64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2025-03-27 21:29:21</v>
+      </c>
+      <c r="B39">
+        <v>960</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>120</v>
+      </c>
+      <c r="I39">
+        <v>2023</v>
+      </c>
+      <c r="J39" t="str">
+        <v>1920.06</v>
+      </c>
+      <c r="K39" t="str">
+        <v>97289.41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2025-03-27 21:35:44</v>
+      </c>
+      <c r="B40">
+        <v>700</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>2023</v>
+      </c>
+      <c r="J40" t="str">
+        <v>17.56</v>
+      </c>
+      <c r="K40" t="str">
+        <v>889.77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2025-03-27 21:38:22</v>
+      </c>
+      <c r="B41">
+        <v>700</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>2022</v>
+      </c>
+      <c r="J41" t="str">
+        <v>241.23</v>
+      </c>
+      <c r="K41" t="str">
+        <v>12223.23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2025-03-27 21:39:07</v>
+      </c>
+      <c r="B42">
+        <v>700</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>2022</v>
+      </c>
+      <c r="J42" t="str">
+        <v>1580.85</v>
+      </c>
+      <c r="K42" t="str">
+        <v>80101.67</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2025-03-27 21:40:28</v>
+      </c>
+      <c r="B43">
+        <v>700</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>2022</v>
+      </c>
+      <c r="J43" t="str">
+        <v>1578.22</v>
+      </c>
+      <c r="K43" t="str">
+        <v>79968.41</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K43"/>
   </ignoredErrors>
 </worksheet>
 </file>